--- a/output/output_data.xlsx
+++ b/output/output_data.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="questions" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="questi" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="question_for_qc" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/output/output_data.xlsx
+++ b/output/output_data.xlsx
@@ -444,7 +444,8 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Our English teacher _______ that lesson to us tomorrow.</t>
+          <t xml:space="preserve"> Our English teacher _______ that lesson to us tomorrow.
+</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -454,29 +455,34 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> explains </t>
+          <t xml:space="preserve"> explains
+</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> will explain</t>
+          <t xml:space="preserve"> will explain
+</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> has explained </t>
+          <t xml:space="preserve"> has explained
+</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> is explaining</t>
+          <t xml:space="preserve"> is explaining
+</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> They at home at 10 o’clock because their son is staying alone at home.</t>
+          <t xml:space="preserve"> They at home at 10 o’clock because their son is staying alone at home.
+</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -486,29 +492,34 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> are going to be</t>
+          <t xml:space="preserve"> are going to be 
+</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> will be  </t>
+          <t xml:space="preserve"> will be 
+</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> will being</t>
+          <t xml:space="preserve"> will being
+</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> are being</t>
+          <t xml:space="preserve"> are being
+</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> They ______ table tennis when their father comes back home at 5 p.m. tomorrow.</t>
+          <t xml:space="preserve"> They ______ table tennis when their father comes back home at 5 p.m. tomorrow.
+</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -518,29 +529,34 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> will play</t>
+          <t xml:space="preserve"> will play
+</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> will be playing </t>
+          <t xml:space="preserve"> will be playing   
+</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> play </t>
+          <t xml:space="preserve"> play
+</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> would play</t>
+          <t xml:space="preserve"> would play
+</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> I _______  you as soon as the plane lands at the airport.</t>
+          <t xml:space="preserve"> I _______  you as soon as the plane lands at the airport.
+</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -550,29 +566,34 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> have called </t>
+          <t xml:space="preserve"> have called
+</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> am calling</t>
+          <t xml:space="preserve"> am calling
+</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> will call </t>
+          <t xml:space="preserve"> will call
+</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> am going to call</t>
+          <t xml:space="preserve"> am going to call
+</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> We’d better change this suitcase. Its handle ________ before long.</t>
+          <t xml:space="preserve"> We’d better change this suitcase. Its handle ________ before long.
+</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -582,29 +603,34 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> is going to breaks</t>
+          <t xml:space="preserve"> is going to break
+</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> will be breaking  </t>
+          <t xml:space="preserve"> will be breaking 
+</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> is breaking </t>
+          <t xml:space="preserve"> is breaking
+</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> breaks</t>
+          <t xml:space="preserve"> breaks
+</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> They ______  pingpong when their father comes back home.</t>
+          <t xml:space="preserve"> They ______  pingpong when their father comes back home.
+</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -614,29 +640,34 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> will play</t>
+          <t xml:space="preserve"> will play
+</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> will be playing</t>
+          <t xml:space="preserve"> will be playing
+</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> play</t>
+          <t xml:space="preserve"> play
+</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> would play</t>
+          <t xml:space="preserve"> would play
+</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t xml:space="preserve">  A: What are you doing? B: We are getting ready. We ________  our uncle in hospital A: Really? Give him my regards.</t>
+          <t xml:space="preserve">  A: What are you doing? B: We are getting ready. We ________  our uncle in hospital A: Really? Give him my regards.
+</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -646,29 +677,34 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> visit </t>
+          <t xml:space="preserve"> visit
+</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> have been visiting  </t>
+          <t xml:space="preserve"> have been visiting 
+</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> was going to visit </t>
+          <t xml:space="preserve"> was going to visit
+</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> are going to visit</t>
+          <t xml:space="preserve"> are going to visit
+</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> What he has learned through practice before _______ him a lot in his future work.</t>
+          <t xml:space="preserve"> What he has learned through practice before _______ him a lot in his future work.
+</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -678,29 +714,34 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve">  helping </t>
+          <t xml:space="preserve">  helping
+</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> helped</t>
+          <t xml:space="preserve"> helped
+</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> it helps </t>
+          <t xml:space="preserve"> it helps
+</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> will help</t>
+          <t xml:space="preserve"> will help
+</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> When they ________  tomorrow, we ________ in the sea.</t>
+          <t xml:space="preserve"> 
+</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -710,29 +751,34 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> come – swim </t>
+          <t xml:space="preserve">When they ________  tomorrow, we ________ in the sea.
+</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> are coming – swim </t>
+          <t xml:space="preserve">A. come – swim
+</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> are coming – are swimming </t>
+          <t xml:space="preserve">B. are coming – swim 
+</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> come – will be coming</t>
+          <t xml:space="preserve">C. are coming – are swimming
+</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Lien _______ to the movie theater tomorrow. She _______ at home and watch TV.</t>
+          <t xml:space="preserve"> Lien _______ to the movie theater tomorrow. She _______ at home and watch TV.
+</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -742,29 +788,34 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> don’t go/ stays</t>
+          <t xml:space="preserve"> don’t go/ stays
+</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> doesn’t go/ stays </t>
+          <t xml:space="preserve"> doesn’t go/ stays
+</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> won’t go/ will stay</t>
+          <t xml:space="preserve"> won’t go/ will stay
+</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> won’t go/ won’t stay</t>
+          <t xml:space="preserve"> won’t go/ won’t stay
+</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> She’ll still be groggy. She ________ undergoing surgery for three hours.</t>
+          <t xml:space="preserve"> She’ll still be groggy. She ________ undergoing surgery for three hours.
+</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -774,29 +825,34 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> will be have</t>
+          <t xml:space="preserve"> will be have
+</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> will have been</t>
+          <t xml:space="preserve"> will have been
+</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> will has been</t>
+          <t xml:space="preserve"> will has been
+</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> has been</t>
+          <t xml:space="preserve"> has been
+</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> My mom ________ for two days by the time I see her.</t>
+          <t xml:space="preserve"> My mom ________ for two days by the time I see her.
+</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -806,29 +862,34 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> will have been travelling</t>
+          <t xml:space="preserve"> will have been travelling
+</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> has been travelling</t>
+          <t xml:space="preserve"> has been travelling
+</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> will has been travelling</t>
+          <t xml:space="preserve"> will has been travelling
+</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> has been travelled</t>
+          <t xml:space="preserve"> has been travelled
+</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> By the end of next year, Mary ________  as an English teacher for 7 years.</t>
+          <t xml:space="preserve"> By the end of next year, Mary ________  as an English teacher for 7 years.
+</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -838,29 +899,34 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> will have worked </t>
+          <t xml:space="preserve"> will have worked
+</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> will has been working</t>
+          <t xml:space="preserve"> will has been working
+</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> will have been working</t>
+          <t xml:space="preserve"> will have been working
+</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> has been working</t>
+          <t xml:space="preserve"> has been working
+</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> By this time next week, we ________  going to school for 12 years.</t>
+          <t xml:space="preserve"> By this time next week, we ________  going to school for 12 years.
+</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -870,29 +936,34 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> have been</t>
+          <t xml:space="preserve"> have been
+</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> had been</t>
+          <t xml:space="preserve"> had been
+</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> will have been</t>
+          <t xml:space="preserve"> will have been
+</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> would have been</t>
+          <t xml:space="preserve"> would have been
+</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> My mother ________  cooking dinner for 2 hours by the time I come home.</t>
+          <t xml:space="preserve"> My mother ________  cooking dinner for 2 hours by the time I come home.
+</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -902,61 +973,71 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> has been </t>
+          <t xml:space="preserve"> has been
+</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> will have been </t>
+          <t xml:space="preserve"> will have been
+</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> have been </t>
+          <t xml:space="preserve"> have been
+</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> had been</t>
+          <t xml:space="preserve"> had been
+</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ________  Your sister ________  pregnant for 7 months?</t>
+          <t xml:space="preserve"> ________  Your sister ________  pregnant for 7 months?
+</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Thông hiểu</t>
+          <t>Vận dụng cao</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Will – have been getting  </t>
+          <t xml:space="preserve"> Will – have been getting 
+</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Will – has been getting </t>
+          <t xml:space="preserve"> Will – has been getting
+</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Have – been getting</t>
+          <t xml:space="preserve"> Have – been getting
+</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Has – been got</t>
+          <t xml:space="preserve"> Has – been got
+</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> They ________  a mini mart by December next year.</t>
+          <t xml:space="preserve"> They ________  a mini mart by December next year.
+</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -966,29 +1047,34 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> have built </t>
+          <t xml:space="preserve"> have built
+</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> will has been building </t>
+          <t xml:space="preserve"> will has been building
+</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> have been building </t>
+          <t xml:space="preserve"> have been building
+</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> will have been building</t>
+          <t xml:space="preserve"> will have been building
+</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> She ________  gymnastics when she gets married to John</t>
+          <t xml:space="preserve"> She ________  gymnastics when she gets married to John
+</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -998,29 +1084,34 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> hasn’t been done</t>
+          <t xml:space="preserve"> hasn’t been done
+</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> hasn’t been doing</t>
+          <t xml:space="preserve"> hasn’t been doing
+</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> won’t have been doing </t>
+          <t xml:space="preserve"> won’t have been doing
+</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> wouldn’t have been doing</t>
+          <t xml:space="preserve"> wouldn’t have been doing
+</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> How long ________  you ________  when you graduate?</t>
+          <t xml:space="preserve"> How long ________  you ________  when you graduate?
+</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1030,29 +1121,34 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> will – have been studying</t>
+          <t xml:space="preserve"> will – have been studying
+</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> will – have studied</t>
+          <t xml:space="preserve"> will – have studied
+</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> have - studied</t>
+          <t xml:space="preserve"> have - studied
+</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> have – been studying</t>
+          <t xml:space="preserve"> have – been studying
+</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> My mother ________  dinner for 3 hours by the time our guests arrive at my house.</t>
+          <t xml:space="preserve"> My mother ________  dinner for 3 hours by the time our guests arrive at my house.
+</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1062,29 +1158,34 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> has cooked</t>
+          <t xml:space="preserve"> has cooked
+</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> had cooked</t>
+          <t xml:space="preserve"> had cooked
+</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> will have been cooking</t>
+          <t xml:space="preserve"> will have been cooking
+</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> will cook</t>
+          <t xml:space="preserve"> will cook
+</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> This is the first time I _______ such a pretty girl</t>
+          <t xml:space="preserve"> This is the first time I _______ such a pretty girl.
+</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1094,29 +1195,34 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>have ever met</t>
+          <t xml:space="preserve">have ever met
+</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> met</t>
+          <t xml:space="preserve"> met
+</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> am meeting </t>
+          <t xml:space="preserve"> am meeting
+</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> meet</t>
+          <t xml:space="preserve"> meet
+</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> How many times _______ you _______ this book?</t>
+          <t xml:space="preserve"> How many times _______ you _______ this book?
+</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1126,29 +1232,34 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> has – read </t>
+          <t xml:space="preserve"> has – read
+</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> have – read </t>
+          <t xml:space="preserve"> have – read
+</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> did – read </t>
+          <t xml:space="preserve"> did – read
+</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> do – read </t>
+          <t xml:space="preserve"> do – read 
+</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The rain _______ . It’s been raining for 3 hours.</t>
+          <t xml:space="preserve"> The rain _______ . It’s been raining for 3 hours.
+</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1158,29 +1269,34 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> has stop </t>
+          <t xml:space="preserve"> has stop
+</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> is stopped </t>
+          <t xml:space="preserve"> is stopped
+</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> haven’t stopped </t>
+          <t xml:space="preserve"> haven’t stopped
+</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> hasn’t stopped</t>
+          <t xml:space="preserve"> hasn’t stopped
+</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The team _______. numerous setbacks so far.</t>
+          <t xml:space="preserve"> The team _______. numerous setbacks so far.
+</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1190,29 +1306,34 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> experienced </t>
+          <t xml:space="preserve"> experienced 
+</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> have experience </t>
+          <t xml:space="preserve"> have experience
+</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> has experienced  </t>
+          <t xml:space="preserve"> has experienced       
+</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> is experiencing</t>
+          <t xml:space="preserve"> is experiencing
+</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> I _______ three books by the same author since last month.</t>
+          <t xml:space="preserve"> I                   three books by the same author since last month.
+</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1222,61 +1343,71 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> has read </t>
+          <t xml:space="preserve"> has read
+</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> have read </t>
+          <t xml:space="preserve"> have read
+</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> read </t>
+          <t xml:space="preserve"> read
+</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> read</t>
+          <t xml:space="preserve"> read
+</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Timson _______ 13 films and I think the latest is the best.</t>
+          <t xml:space="preserve"> Timson 
+</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Thông hiểu</t>
+          <t>Vận dụng cao</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> made</t>
+          <t xml:space="preserve">        13 films and I think the latest is the best.
+</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> had made</t>
+          <t xml:space="preserve">A. made
+</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> was making</t>
+          <t xml:space="preserve">B. had made
+</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> has made</t>
+          <t xml:space="preserve">C. was making
+</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Kathy ________ for three different companies since graduating two years ago.</t>
+          <t xml:space="preserve"> Kathy                 for three different companies since graduating two years ago.
+</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1286,29 +1417,34 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> has worked</t>
+          <t xml:space="preserve"> has worked
+</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> have worked</t>
+          <t xml:space="preserve"> have worked
+</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> have been worked</t>
+          <t xml:space="preserve"> have been worked   
+</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> worked</t>
+          <t xml:space="preserve"> worked
+</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> You _____ or work too many times this year. If you’re not careful, you’ll be fired.</t>
+          <t xml:space="preserve"> You                  for work too many times this year. If you’re not careful, you’ll be fired.
+</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1318,29 +1454,34 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ‘ve been late </t>
+          <t xml:space="preserve"> ‘ve been late 
+</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ‘s been late </t>
+          <t xml:space="preserve"> ‘s been late
+</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ‘ve be late</t>
+          <t xml:space="preserve"> ‘ve be late      
+</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ‘s be late</t>
+          <t xml:space="preserve"> ‘s be late
+</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> I ________ on this Math problem for at least an hour but I don’t find out the question.</t>
+          <t xml:space="preserve"> I                 on this Math problem for at least an hour but I don’t find out the question.
+</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1350,29 +1491,34 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> has been writing </t>
+          <t xml:space="preserve"> has been writing 
+</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> have been writing</t>
+          <t xml:space="preserve"> have been writing
+</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> has written</t>
+          <t xml:space="preserve"> has written
+</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> has been written </t>
+          <t xml:space="preserve"> has been written 
+</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> They ________ it since they ________ back from holiday.</t>
+          <t xml:space="preserve"> They                  it since they                  back from holiday.
+</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1382,29 +1528,34 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> hasn’t washed - come</t>
+          <t xml:space="preserve"> hasn’t washed - come
+</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> haven’t washed – came </t>
+          <t xml:space="preserve"> haven’t washed – came
+</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> hasn’t washed – have come</t>
+          <t xml:space="preserve"> hasn’t washed – have come
+</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> haven’t been washing - came</t>
+          <t xml:space="preserve"> haven’t been washing - came
+</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> _______ visited VN before your trip last summer?</t>
+          <t xml:space="preserve"> _______ visited VN before your trip last summer?
+</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1414,29 +1565,34 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Have you ever</t>
+          <t xml:space="preserve"> Have you ever
+</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> You had</t>
+          <t xml:space="preserve"> You had
+</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Had ever you</t>
+          <t xml:space="preserve"> Had ever you
+</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Had you ever</t>
+          <t xml:space="preserve"> Had you ever
+</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> When he arrived, we _______ the test. </t>
+          <t xml:space="preserve"> When he arrived, we _______ the test. 
+</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1446,29 +1602,34 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> have already started </t>
+          <t xml:space="preserve"> have already started
+</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> starts </t>
+          <t xml:space="preserve"> starts 
+</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> had already started</t>
+          <t xml:space="preserve"> had already started
+</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> already starting</t>
+          <t xml:space="preserve"> already starting
+</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> What made you think he _______  in the Royal Air Force?</t>
+          <t xml:space="preserve"> What made you think he _______  in the Royal Air Force?
+</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1478,29 +1639,34 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> must have to be</t>
+          <t xml:space="preserve"> must have to be
+</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> was being</t>
+          <t xml:space="preserve"> was being
+</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> had been </t>
+          <t xml:space="preserve"> had been
+</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> had had to be</t>
+          <t xml:space="preserve"> had had to be
+</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The tree was dead because it _______   arid all summer.</t>
+          <t xml:space="preserve"> The tree was dead because it _______   arid all summer.
+</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1510,29 +1676,34 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> being</t>
+          <t xml:space="preserve"> being
+</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> is</t>
+          <t xml:space="preserve"> is
+</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> had been</t>
+          <t xml:space="preserve"> had been
+</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> have been</t>
+          <t xml:space="preserve"> have been
+</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> “Is Tom going away?” – “I think so. He ________  for a better job, but he didn’t get it.” </t>
+          <t xml:space="preserve"> “Is Tom going away?” – “I think so. He ________  for a better job, but he didn’t get it.” 
+</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1542,29 +1713,34 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> was hoped </t>
+          <t xml:space="preserve"> was hoped
+</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> had hoped</t>
+          <t xml:space="preserve"> had hoped
+</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> was hoping</t>
+          <t xml:space="preserve"> was hoping
+</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> would hope</t>
+          <t xml:space="preserve"> would hope
+</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> If she ________   to me, she would have got the job.</t>
+          <t xml:space="preserve"> If she ________   to me, she would have got the job.
+</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1574,29 +1750,34 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> has listened</t>
+          <t xml:space="preserve"> has listened
+</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> listened</t>
+          <t xml:space="preserve"> listened
+</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> had listen</t>
+          <t xml:space="preserve"> had listen
+</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> had listened</t>
+          <t xml:space="preserve"> had listened
+</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> They _______ a lot of preparation before the match started.</t>
+          <t xml:space="preserve"> They _______ a lot of preparation before the match started.
+</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1606,29 +1787,34 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>had made</t>
+          <t xml:space="preserve">had made
+</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> has made</t>
+          <t xml:space="preserve"> has made
+</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> will be made</t>
+          <t xml:space="preserve"> will be made
+</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> are making</t>
+          <t xml:space="preserve"> are making
+</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> They were late for the flight because they _______ their passports.</t>
+          <t xml:space="preserve"> They were late for the flight because they _______ their passports.
+</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1638,29 +1824,34 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> had forgotten</t>
+          <t xml:space="preserve"> had forgotten
+</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> was forgot</t>
+          <t xml:space="preserve"> was forgot
+</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> was forgotten </t>
+          <t xml:space="preserve"> was forgotten
+</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> forgot</t>
+          <t xml:space="preserve"> forgot
+</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> As soon as I shut the front door I realised that I _______ my key in the house. </t>
+          <t xml:space="preserve"> As soon as I shut the front door I realised that I _______ my key in the house. 
+</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1670,29 +1861,34 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> has left</t>
+          <t xml:space="preserve"> has left
+</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> had left</t>
+          <t xml:space="preserve"> had left
+</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> was leaving</t>
+          <t xml:space="preserve"> was leaving
+</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> left</t>
+          <t xml:space="preserve"> left
+</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The alarm was raised too late, so when the emergency crew arrived no less than 10,000 gallons of oil _______ into the stream.</t>
+          <t xml:space="preserve"> The alarm was raised too late, so when the emergency crew arrived no less than 10,000 gallons of oil _______ into the stream.
+</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1702,29 +1898,34 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> has gushed </t>
+          <t xml:space="preserve"> has gushed  
+</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> gushed </t>
+          <t xml:space="preserve"> gushed
+</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> did gush </t>
+          <t xml:space="preserve"> did gush
+</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> had gushed</t>
+          <t xml:space="preserve"> had gushed
+</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Another million people ______ unemployed by the time next year.</t>
+          <t xml:space="preserve"> Another million people ______ unemployed by the time next year.
+</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1734,29 +1935,34 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> will have become </t>
+          <t xml:space="preserve"> will have become 
+</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> will become   </t>
+          <t xml:space="preserve"> will become  
+</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> will be become  </t>
+          <t xml:space="preserve"> will be become 
+</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> will be becoming</t>
+          <t xml:space="preserve"> will be becoming
+</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> By the end of next year, George ______ English for two years.</t>
+          <t xml:space="preserve"> By the end of next year, George ______ English for two years.
+</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1766,29 +1972,34 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> have learned </t>
+          <t xml:space="preserve"> have learned  
+</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> will learn  </t>
+          <t xml:space="preserve"> will learn 
+</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> will have learned </t>
+          <t xml:space="preserve"> will have learned
+</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> would learn</t>
+          <t xml:space="preserve"> would learn
+</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> By the time he comes, we will have already __________.</t>
+          <t xml:space="preserve"> By the time he comes, we will have already __________.
+</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1798,29 +2009,34 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> leave           </t>
+          <t xml:space="preserve"> leave          
+</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> leaving        </t>
+          <t xml:space="preserve"> leaving       
+</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> left             </t>
+          <t xml:space="preserve"> left            
+</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> leaves</t>
+          <t xml:space="preserve"> leaves
+</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> She _____ from the excursion by 6 o'clock tonight.</t>
+          <t xml:space="preserve"> She _____ from the excursion by 6 o'clock tonight.
+</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1830,29 +2046,34 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> will have returned </t>
+          <t xml:space="preserve"> will have returned 
+</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> is going to return</t>
+          <t xml:space="preserve"> is going to return
+</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> is returning   </t>
+          <t xml:space="preserve"> is returning  
+</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> will be returning</t>
+          <t xml:space="preserve"> will be returning
+</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> She _______ from the excursion by 6 o'clock tonight.</t>
+          <t xml:space="preserve"> She _______ from the excursion by 6 o'clock tonight.
+</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1862,29 +2083,34 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> will have returned </t>
+          <t xml:space="preserve"> will have returned
+</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> is going to return</t>
+          <t xml:space="preserve"> is going to return
+</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> is returning   </t>
+          <t xml:space="preserve"> is returning  
+</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> will be returning</t>
+          <t xml:space="preserve"> will be returning
+</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> You are too slow. I’m sure that by the time you phone them, they _______ that car to someone else.</t>
+          <t xml:space="preserve"> You are too slow. I’m sure that by the time you phone them, they _______ that car to someone else.
+</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1894,29 +2120,34 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> will sell </t>
+          <t xml:space="preserve"> will sell
+</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> are selling   </t>
+          <t xml:space="preserve"> are selling  
+</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> are going to sell   </t>
+          <t xml:space="preserve"> are going to sell  
+</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> will have sold</t>
+          <t xml:space="preserve"> will have sold
+</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> By 2050, this area ______ turned into an industrial centre.</t>
+          <t xml:space="preserve"> By 2050, this area ______ turned into an industrial centre.
+</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1926,29 +2157,34 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> will be  </t>
+          <t xml:space="preserve"> will be 
+</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> will</t>
+          <t xml:space="preserve"> will
+</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> will have been</t>
+          <t xml:space="preserve"> will have been 
+</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> has</t>
+          <t xml:space="preserve">                       has
+</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The car ______ ready for him by the time he comes tomorrow.</t>
+          <t xml:space="preserve"> The car ______ ready for him by the time he comes tomorrow.
+</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1958,29 +2194,34 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> will be</t>
+          <t xml:space="preserve"> will be
+</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> will have been </t>
+          <t xml:space="preserve"> will have been   
+</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> will being  </t>
+          <t xml:space="preserve"> will being 
+</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> are going to be</t>
+          <t xml:space="preserve"> are going to be
+</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> These machines _______ very well by the time you ________back next week.</t>
+          <t xml:space="preserve"> These machines _______ very well by the time you ________back next week.
+</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1990,29 +2231,34 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> will work – come</t>
+          <t xml:space="preserve"> will work – come
+</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> work - will come</t>
+          <t xml:space="preserve"> work - will come
+</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> will have work - will come</t>
+          <t xml:space="preserve"> will have work - will come
+</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> will have worked - come</t>
+          <t xml:space="preserve"> will have worked - come
+</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> I know by the time Jack and Marry_______ my house this afternoon, I _______ out for a walk.</t>
+          <t xml:space="preserve"> I know by the time Jack and Marry_______ my house this afternoon, I _______ out for a walk.
+</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2022,22 +2268,26 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> visit - will go</t>
+          <t xml:space="preserve"> visit - will go
+</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> will have visited - go</t>
+          <t xml:space="preserve"> will have visited - go
+</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> visit - will have gone</t>
+          <t xml:space="preserve"> visit - will have gone
+</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> visit - will be going</t>
+          <t xml:space="preserve"> visit - will be going
+</t>
         </is>
       </c>
     </row>
@@ -2063,7 +2313,8 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Câu 1 (NB) Our English teacher _______ that lesson to us tomorrow.</t>
+          <t xml:space="preserve">Câu 1 (NB) Our English teacher _______ that lesson to us tomorrow.
+</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -2073,29 +2324,34 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t xml:space="preserve">A. explains </t>
+          <t xml:space="preserve">A. explains
+</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>B. will explain</t>
+          <t xml:space="preserve">B. will explain
+</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t xml:space="preserve">C. has explained </t>
+          <t xml:space="preserve">C. has explained
+</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>D. is explaining</t>
+          <t xml:space="preserve">D. is explaining
+</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Câu 2 (NB) They at home at 10 o’clock because their son is staying alone at home.</t>
+          <t xml:space="preserve">Câu 2 (NB) They at home at 10 o’clock because their son is staying alone at home.
+</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -2105,29 +2361,34 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>A. are going to be</t>
+          <t xml:space="preserve">A. are going to be 
+</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">B. will be  </t>
+          <t xml:space="preserve">B. will be 
+</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>C. will being</t>
+          <t xml:space="preserve">C. will being
+</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>D. are being</t>
+          <t xml:space="preserve">D. are being
+</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Câu 3 (NB) They ______ table tennis when their father comes back home at 5 p.m. tomorrow.</t>
+          <t xml:space="preserve">Câu 3 (NB) They ______ table tennis when their father comes back home at 5 p.m. tomorrow.
+</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -2137,29 +2398,34 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>A. will play</t>
+          <t xml:space="preserve">A. will play
+</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve">B. will be playing </t>
+          <t xml:space="preserve">B. will be playing   
+</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve">C. play </t>
+          <t xml:space="preserve">C. play
+</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>D. would play</t>
+          <t xml:space="preserve">D. would play
+</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Câu 4 (NB) I _______  you as soon as the plane lands at the airport.</t>
+          <t xml:space="preserve">Câu 4 (NB) I _______  you as soon as the plane lands at the airport.
+</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -2169,29 +2435,34 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve">A. have called </t>
+          <t xml:space="preserve">A. have called
+</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>B. am calling</t>
+          <t xml:space="preserve">B. am calling
+</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve">C. will call </t>
+          <t xml:space="preserve">C. will call
+</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>D. am going to call</t>
+          <t xml:space="preserve">D. am going to call
+</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Câu 5 (NB) We’d better change this suitcase. Its handle ________ before long.</t>
+          <t xml:space="preserve">Câu 5 (NB) We’d better change this suitcase. Its handle ________ before long.
+</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -2201,29 +2472,34 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>A. is going to breaks</t>
+          <t xml:space="preserve">A. is going to break
+</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve">B. will be breaking  </t>
+          <t xml:space="preserve">B. will be breaking 
+</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t xml:space="preserve">C. is breaking </t>
+          <t xml:space="preserve">C. is breaking
+</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>D. breaks</t>
+          <t xml:space="preserve">D. breaks
+</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Câu 6 (TH) They ______  pingpong when their father comes back home.</t>
+          <t xml:space="preserve">Câu 6 (TH) They ______  pingpong when their father comes back home.
+</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -2233,29 +2509,34 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>A. will play</t>
+          <t xml:space="preserve">A. will play
+</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>B. will be playing</t>
+          <t xml:space="preserve">B. will be playing
+</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>C. play</t>
+          <t xml:space="preserve">C. play
+</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>D. would play</t>
+          <t xml:space="preserve">D. would play
+</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Câu 7 (TH)  A: What are you doing? B: We are getting ready. We ________  our uncle in hospital A: Really? Give him my regards.</t>
+          <t xml:space="preserve">Câu 7 (TH)  A: What are you doing? B: We are getting ready. We ________  our uncle in hospital A: Really? Give him my regards.
+</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -2265,29 +2546,34 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve">A. visit </t>
+          <t xml:space="preserve">A. visit
+</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve">B. have been visiting  </t>
+          <t xml:space="preserve">B. have been visiting 
+</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t xml:space="preserve">C. was going to visit </t>
+          <t xml:space="preserve">C. was going to visit
+</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>D. are going to visit</t>
+          <t xml:space="preserve">D. are going to visit
+</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Câu 8 (TH) What he has learned through practice before _______ him a lot in his future work.</t>
+          <t xml:space="preserve">Câu 8 (TH) What he has learned through practice before _______ him a lot in his future work.
+</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -2297,29 +2583,34 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> A. helping </t>
+          <t xml:space="preserve"> A. helping
+</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>B. helped</t>
+          <t xml:space="preserve">B. helped
+</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t xml:space="preserve">C. it helps </t>
+          <t xml:space="preserve">C. it helps
+</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>D. will help</t>
+          <t xml:space="preserve">D. will help
+</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Câu 9 (TH) When they ________  tomorrow, we ________ in the sea.</t>
+          <t xml:space="preserve">Câu 9 (TH) 
+</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2329,29 +2620,34 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve">A. come – swim </t>
+          <t xml:space="preserve">When they ________  tomorrow, we ________ in the sea.
+</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve">B. are coming – swim </t>
+          <t xml:space="preserve">A. come – swim
+</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t xml:space="preserve">C. are coming – are swimming </t>
+          <t xml:space="preserve">B. are coming – swim 
+</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>D. come – will be coming</t>
+          <t xml:space="preserve">C. are coming – are swimming
+</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Câu 10 (TH) Lien _______ to the movie theater tomorrow. She _______ at home and watch TV.</t>
+          <t xml:space="preserve">Câu 10 (TH) Lien _______ to the movie theater tomorrow. She _______ at home and watch TV.
+</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2361,29 +2657,34 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>A. don’t go/ stays</t>
+          <t xml:space="preserve">A. don’t go/ stays
+</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve">B. doesn’t go/ stays </t>
+          <t xml:space="preserve">B. doesn’t go/ stays
+</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>C. won’t go/ will stay</t>
+          <t xml:space="preserve">C. won’t go/ will stay
+</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>D. won’t go/ won’t stay</t>
+          <t xml:space="preserve">D. won’t go/ won’t stay
+</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Câu 1 (NB) She’ll still be groggy. She ________ undergoing surgery for three hours.</t>
+          <t xml:space="preserve">Câu 1 (NB) She’ll still be groggy. She ________ undergoing surgery for three hours.
+</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2393,29 +2694,34 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>A. will be have</t>
+          <t xml:space="preserve">A. will be have
+</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>B. will have been</t>
+          <t xml:space="preserve">B. will have been
+</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>C. will has been</t>
+          <t xml:space="preserve">C. will has been
+</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>D. has been</t>
+          <t xml:space="preserve">D. has been
+</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Câu 2 (NB) My mom ________ for two days by the time I see her.</t>
+          <t xml:space="preserve">Câu 2 (NB) My mom ________ for two days by the time I see her.
+</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2425,29 +2731,34 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>A. will have been travelling</t>
+          <t xml:space="preserve">A. will have been travelling
+</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>B. has been travelling</t>
+          <t xml:space="preserve">B. has been travelling
+</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>C. will has been travelling</t>
+          <t xml:space="preserve">C. will has been travelling
+</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>D. has been travelled</t>
+          <t xml:space="preserve">D. has been travelled
+</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Câu 3 (NB) By the end of next year, Mary ________  as an English teacher for 7 years.</t>
+          <t xml:space="preserve">Câu 3 (NB) By the end of next year, Mary ________  as an English teacher for 7 years.
+</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2457,29 +2768,34 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t xml:space="preserve">A. will have worked </t>
+          <t xml:space="preserve">A. will have worked
+</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>B. will has been working</t>
+          <t xml:space="preserve">B. will has been working
+</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>C. will have been working</t>
+          <t xml:space="preserve">C. will have been working
+</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>D. has been working</t>
+          <t xml:space="preserve">D. has been working
+</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Câu 4 (NB) By this time next week, we ________  going to school for 12 years.</t>
+          <t xml:space="preserve">Câu 4 (NB) By this time next week, we ________  going to school for 12 years.
+</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2489,29 +2805,34 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>A. have been</t>
+          <t xml:space="preserve">A. have been
+</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>B. had been</t>
+          <t xml:space="preserve">B. had been
+</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>C. will have been</t>
+          <t xml:space="preserve">C. will have been
+</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>D. would have been</t>
+          <t xml:space="preserve">D. would have been
+</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Câu 5 (NB) My mother ________  cooking dinner for 2 hours by the time I come home.</t>
+          <t xml:space="preserve">Câu 5 (NB) My mother ________  cooking dinner for 2 hours by the time I come home.
+</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2521,61 +2842,71 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t xml:space="preserve">A. has been </t>
+          <t xml:space="preserve">A. has been
+</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t xml:space="preserve">B. will have been </t>
+          <t xml:space="preserve">B. will have been
+</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t xml:space="preserve">C. have been </t>
+          <t xml:space="preserve">C. have been
+</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>D. had been</t>
+          <t xml:space="preserve">D. had been
+</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Câu 6 (TH) ________  Your sister ________  pregnant for 7 months?</t>
+          <t xml:space="preserve">Câu 6 (TH ) ________  Your sister ________  pregnant for 7 months?
+</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Thông hiểu</t>
+          <t>Vận dụng cao</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t xml:space="preserve">A. Will – have been getting  </t>
+          <t xml:space="preserve">A. Will – have been getting 
+</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t xml:space="preserve">B. Will – has been getting </t>
+          <t xml:space="preserve">B. Will – has been getting
+</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>C. Have – been getting</t>
+          <t xml:space="preserve">C. Have – been getting
+</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>D. Has – been got</t>
+          <t xml:space="preserve">D. Has – been got
+</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Câu 7 (TH) They ________  a mini mart by December next year.</t>
+          <t xml:space="preserve">Câu 7 (TH) They ________  a mini mart by December next year.
+</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2585,29 +2916,34 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t xml:space="preserve">A. have built </t>
+          <t xml:space="preserve">A. have built
+</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t xml:space="preserve">B. will has been building </t>
+          <t xml:space="preserve">B. will has been building
+</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t xml:space="preserve">C. have been building </t>
+          <t xml:space="preserve">C. have been building
+</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>D. will have been building</t>
+          <t xml:space="preserve">D. will have been building
+</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Câu 8 (TH) She ________  gymnastics when she gets married to John</t>
+          <t xml:space="preserve">Câu 8 (TH) She ________  gymnastics when she gets married to John
+</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2617,29 +2953,34 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>A. hasn’t been done</t>
+          <t xml:space="preserve">A. hasn’t been done
+</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>B. hasn’t been doing</t>
+          <t xml:space="preserve">B. hasn’t been doing
+</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t xml:space="preserve">C. won’t have been doing </t>
+          <t xml:space="preserve">C. won’t have been doing
+</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>D. wouldn’t have been doing</t>
+          <t xml:space="preserve">D. wouldn’t have been doing
+</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Câu 9 (TH) How long ________  you ________  when you graduate?</t>
+          <t xml:space="preserve">Câu 9 (TH) How long ________  you ________  when you graduate?
+</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2649,29 +2990,34 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>A. will – have been studying</t>
+          <t xml:space="preserve">A. will – have been studying
+</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>B. will – have studied</t>
+          <t xml:space="preserve">B. will – have studied
+</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>C. have - studied</t>
+          <t xml:space="preserve">C. have - studied
+</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>D. have – been studying</t>
+          <t xml:space="preserve">D. have – been studying
+</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Câu 10 (TH) My mother ________  dinner for 3 hours by the time our guests arrive at my house.</t>
+          <t xml:space="preserve">Câu 10 (TH) My mother ________  dinner for 3 hours by the time our guests arrive at my house.
+</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -2681,29 +3027,34 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>A. has cooked</t>
+          <t xml:space="preserve">A. has cooked
+</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>B. had cooked</t>
+          <t xml:space="preserve">B. had cooked
+</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>C. will have been cooking</t>
+          <t xml:space="preserve">C. will have been cooking
+</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>D. will cook</t>
+          <t xml:space="preserve">D. will cook
+</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Câu 1 (NB) This is the first time I _______ such a pretty girl</t>
+          <t xml:space="preserve">Câu 1 (NB) This is the first time I _______ such a pretty girl.
+</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -2713,29 +3064,34 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>A.have ever met</t>
+          <t xml:space="preserve">A.have ever met
+</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>B. met</t>
+          <t xml:space="preserve">B. met
+</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t xml:space="preserve">C. am meeting </t>
+          <t xml:space="preserve">C. am meeting
+</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>D. meet</t>
+          <t xml:space="preserve">D. meet
+</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Câu 2 (NB) How many times _______ you _______ this book?</t>
+          <t xml:space="preserve">Câu 2 (NB) How many times _______ you _______ this book?
+</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -2745,29 +3101,34 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t xml:space="preserve">A. has – read </t>
+          <t xml:space="preserve">A. has – read
+</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t xml:space="preserve">B. have – read </t>
+          <t xml:space="preserve">B. have – read
+</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t xml:space="preserve">C. did – read </t>
+          <t xml:space="preserve">C. did – read
+</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t xml:space="preserve">D. do – read </t>
+          <t xml:space="preserve">D. do – read 
+</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Câu 3 (NB) The rain _______ . It’s been raining for 3 hours.</t>
+          <t xml:space="preserve">Câu 3 (NB) The rain _______ . It’s been raining for 3 hours.
+</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -2777,29 +3138,34 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t xml:space="preserve">A. has stop </t>
+          <t xml:space="preserve">A. has stop
+</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t xml:space="preserve">B. is stopped </t>
+          <t xml:space="preserve">B. is stopped
+</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t xml:space="preserve">C. haven’t stopped </t>
+          <t xml:space="preserve">C. haven’t stopped
+</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>D. hasn’t stopped</t>
+          <t xml:space="preserve">D. hasn’t stopped
+</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Câu 4 (NB) The team _______. numerous setbacks so far.</t>
+          <t xml:space="preserve">Câu 4 (NB) The team _______. numerous setbacks so far.
+</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -2809,29 +3175,34 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t xml:space="preserve">A. experienced </t>
+          <t xml:space="preserve">A. experienced 
+</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t xml:space="preserve">B. have experience </t>
+          <t xml:space="preserve">B. have experience
+</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t xml:space="preserve">C. has experienced  </t>
+          <t xml:space="preserve">C. has experienced       
+</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>D. is experiencing</t>
+          <t xml:space="preserve">D. is experiencing
+</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Câu 5 (NB) I _______ three books by the same author since last month.</t>
+          <t xml:space="preserve">Câu 5 (NB) I                   three books by the same author since last month.
+</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -2841,61 +3212,71 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t xml:space="preserve">A. has read </t>
+          <t xml:space="preserve">A. has read
+</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t xml:space="preserve">B. have read </t>
+          <t xml:space="preserve">B. have read
+</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t xml:space="preserve">C. read </t>
+          <t xml:space="preserve">C. read
+</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>D. read</t>
+          <t xml:space="preserve">D. read
+</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Câu 6 (TH) Timson _______ 13 films and I think the latest is the best.</t>
+          <t xml:space="preserve">Câu 6 (TH ) Timson 
+</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Thông hiểu</t>
+          <t>Vận dụng cao</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>A. made</t>
+          <t xml:space="preserve">        13 films and I think the latest is the best.
+</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>B. had made</t>
+          <t xml:space="preserve">A. made
+</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>C. was making</t>
+          <t xml:space="preserve">B. had made
+</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>D. has made</t>
+          <t xml:space="preserve">C. was making
+</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Câu 7 (TH) Kathy ________ for three different companies since graduating two years ago.</t>
+          <t xml:space="preserve">Câu 7 (TH) Kathy                 for three different companies since graduating two years ago.
+</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2905,29 +3286,34 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>A. has worked</t>
+          <t xml:space="preserve">A. has worked
+</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>B. have worked</t>
+          <t xml:space="preserve">B. have worked
+</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>C. have been worked</t>
+          <t xml:space="preserve">C. have been worked   
+</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>D. worked</t>
+          <t xml:space="preserve">D. worked
+</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Câu 8 (TH) You _____ or work too many times this year. If you’re not careful, you’ll be fired.</t>
+          <t xml:space="preserve">Câu 8 (TH) You                  for work too many times this year. If you’re not careful, you’ll be fired.
+</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2937,29 +3323,34 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t xml:space="preserve">A. ‘ve been late </t>
+          <t xml:space="preserve">A. ‘ve been late 
+</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t xml:space="preserve">B. ‘s been late </t>
+          <t xml:space="preserve">B. ‘s been late
+</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>C. ‘ve be late</t>
+          <t xml:space="preserve">C. ‘ve be late      
+</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>D. ‘s be late</t>
+          <t xml:space="preserve">D. ‘s be late
+</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Câu 9 (TH) I ________ on this Math problem for at least an hour but I don’t find out the question.</t>
+          <t xml:space="preserve">Câu 9 (TH) I                 on this Math problem for at least an hour but I don’t find out the question.
+</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2969,29 +3360,34 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t xml:space="preserve">A. has been writing </t>
+          <t xml:space="preserve">A. has been writing 
+</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>B. have been writing</t>
+          <t xml:space="preserve">B. have been writing
+</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>C. has written</t>
+          <t xml:space="preserve">C. has written
+</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t xml:space="preserve">D. has been written </t>
+          <t xml:space="preserve">D. has been written 
+</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Câu 10 (TH) They ________ it since they ________ back from holiday.</t>
+          <t xml:space="preserve">Câu 10 (TH) They                  it since they                  back from holiday.
+</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -3001,29 +3397,34 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>A. hasn’t washed - come</t>
+          <t xml:space="preserve">A. hasn’t washed - come
+</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t xml:space="preserve">B. haven’t washed – came </t>
+          <t xml:space="preserve">B. haven’t washed – came
+</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>C. hasn’t washed – have come</t>
+          <t xml:space="preserve">C. hasn’t washed – have come
+</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>D. haven’t been washing - came</t>
+          <t xml:space="preserve">D. haven’t been washing - came
+</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Câu 1 (NB) _______ visited VN before your trip last summer?</t>
+          <t xml:space="preserve">Câu 1 (NB) _______ visited VN before your trip last summer?
+</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -3033,29 +3434,34 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>A. Have you ever</t>
+          <t xml:space="preserve">A. Have you ever
+</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>B. You had</t>
+          <t xml:space="preserve">B. You had
+</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>C. Had ever you</t>
+          <t xml:space="preserve">C. Had ever you
+</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>D. Had you ever</t>
+          <t xml:space="preserve">D. Had you ever
+</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t xml:space="preserve">Câu 2 (NB) When he arrived, we _______ the test. </t>
+          <t xml:space="preserve">Câu 2 (NB) When he arrived, we _______ the test. 
+</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -3065,29 +3471,34 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t xml:space="preserve">A. have already started </t>
+          <t xml:space="preserve">A. have already started
+</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t xml:space="preserve">B. starts </t>
+          <t xml:space="preserve">B. starts 
+</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>C. had already started</t>
+          <t xml:space="preserve">C. had already started
+</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>D. already starting</t>
+          <t xml:space="preserve">D. already starting
+</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Câu 3 (NB) What made you think he _______  in the Royal Air Force?</t>
+          <t xml:space="preserve">Câu 3 (NB) What made you think he _______  in the Royal Air Force?
+</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -3097,29 +3508,34 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>A. must have to be</t>
+          <t xml:space="preserve">A. must have to be
+</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>B. was being</t>
+          <t xml:space="preserve">B. was being
+</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t xml:space="preserve">C. had been </t>
+          <t xml:space="preserve">C. had been
+</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>D. had had to be</t>
+          <t xml:space="preserve">D. had had to be
+</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Câu 4 (NB) The tree was dead because it _______   arid all summer.</t>
+          <t xml:space="preserve">Câu 4 (NB) The tree was dead because it _______   arid all summer.
+</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -3129,29 +3545,34 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>A. being</t>
+          <t xml:space="preserve">A. being
+</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>B. is</t>
+          <t xml:space="preserve">B. is
+</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>C. had been</t>
+          <t xml:space="preserve">C. had been
+</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>D. have been</t>
+          <t xml:space="preserve">D. have been
+</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t xml:space="preserve">Câu 5 (NB) “Is Tom going away?” – “I think so. He ________  for a better job, but he didn’t get it.” </t>
+          <t xml:space="preserve">Câu 5 (NB) “Is Tom going away?” – “I think so. He ________  for a better job, but he didn’t get it.” 
+</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -3161,29 +3582,34 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t xml:space="preserve">A. was hoped </t>
+          <t xml:space="preserve">A. was hoped
+</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>B. had hoped</t>
+          <t xml:space="preserve">B. had hoped
+</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>C. was hoping</t>
+          <t xml:space="preserve">C. was hoping
+</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>D. would hope</t>
+          <t xml:space="preserve">D. would hope
+</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Câu 6 (TH) If she ________   to me, she would have got the job.</t>
+          <t xml:space="preserve">Câu 6 (TH) If she ________   to me, she would have got the job.
+</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -3193,29 +3619,34 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>A. has listened</t>
+          <t xml:space="preserve">A. has listened
+</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>B. listened</t>
+          <t xml:space="preserve">B. listened
+</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>C. had listen</t>
+          <t xml:space="preserve">C. had listen
+</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>D. had listened</t>
+          <t xml:space="preserve">D. had listened
+</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Câu 7 (TH) They _______ a lot of preparation before the match started.</t>
+          <t xml:space="preserve">Câu 7 (TH) They _______ a lot of preparation before the match started.
+</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -3225,29 +3656,34 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>A.had made</t>
+          <t xml:space="preserve">A.had made
+</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>B. has made</t>
+          <t xml:space="preserve">B. has made
+</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>C. will be made</t>
+          <t xml:space="preserve">C. will be made
+</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>D. are making</t>
+          <t xml:space="preserve">D. are making
+</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Câu 8 (TH) They were late for the flight because they _______ their passports.</t>
+          <t xml:space="preserve">Câu 8 (TH) They were late for the flight because they _______ their passports.
+</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -3257,29 +3693,34 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>A. had forgotten</t>
+          <t xml:space="preserve">A. had forgotten
+</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>B. was forgot</t>
+          <t xml:space="preserve">B. was forgot
+</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t xml:space="preserve">C. was forgotten </t>
+          <t xml:space="preserve">C. was forgotten
+</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>D. forgot</t>
+          <t xml:space="preserve">D. forgot
+</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t xml:space="preserve">Câu 9 (TH) As soon as I shut the front door I realised that I _______ my key in the house. </t>
+          <t xml:space="preserve">Câu 9 (TH) As soon as I shut the front door I realised that I _______ my key in the house. 
+</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -3289,29 +3730,34 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>A. has left</t>
+          <t xml:space="preserve">A. has left
+</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>B. had left</t>
+          <t xml:space="preserve">B. had left
+</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>C. was leaving</t>
+          <t xml:space="preserve">C. was leaving
+</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>D. left</t>
+          <t xml:space="preserve">D. left
+</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Câu 10 (TH) The alarm was raised too late, so when the emergency crew arrived no less than 10,000 gallons of oil _______ into the stream.</t>
+          <t xml:space="preserve">Câu 10 (TH) The alarm was raised too late, so when the emergency crew arrived no less than 10,000 gallons of oil _______ into the stream.
+</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -3321,29 +3767,34 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t xml:space="preserve">A. has gushed </t>
+          <t xml:space="preserve">A. has gushed  
+</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t xml:space="preserve">B. gushed </t>
+          <t xml:space="preserve">B. gushed
+</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t xml:space="preserve">C. did gush </t>
+          <t xml:space="preserve">C. did gush
+</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>D. had gushed</t>
+          <t xml:space="preserve">D. had gushed
+</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Câu 1 (NB) Another million people ______ unemployed by the time next year.</t>
+          <t xml:space="preserve">Câu 1 (NB) Another million people ______ unemployed by the time next year.
+</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -3353,29 +3804,34 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t xml:space="preserve">A. will have become </t>
+          <t xml:space="preserve">A. will have become 
+</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t xml:space="preserve">B. will become   </t>
+          <t xml:space="preserve">B. will become  
+</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t xml:space="preserve">C. will be become  </t>
+          <t xml:space="preserve">C. will be become 
+</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>D. will be becoming</t>
+          <t xml:space="preserve">D. will be becoming
+</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Câu 2 (NB) By the end of next year, George ______ English for two years.</t>
+          <t xml:space="preserve">Câu 2 (NB) By the end of next year, George ______ English for two years.
+</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -3385,29 +3841,34 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t xml:space="preserve">A. have learned </t>
+          <t xml:space="preserve">A. have learned  
+</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t xml:space="preserve">B. will learn  </t>
+          <t xml:space="preserve">B. will learn 
+</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t xml:space="preserve">C. will have learned </t>
+          <t xml:space="preserve">C. will have learned
+</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>D. would learn</t>
+          <t xml:space="preserve">D. would learn
+</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Câu 3 (NB) By the time he comes, we will have already __________.</t>
+          <t xml:space="preserve">Câu 3 (NB) By the time he comes, we will have already __________.
+</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -3417,29 +3878,34 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t xml:space="preserve">A. leave           </t>
+          <t xml:space="preserve">A. leave          
+</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t xml:space="preserve">B. leaving        </t>
+          <t xml:space="preserve">B. leaving       
+</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t xml:space="preserve">C. left             </t>
+          <t xml:space="preserve">C. left            
+</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>D. leaves</t>
+          <t xml:space="preserve">D. leaves
+</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Câu 4 (NB) She _____ from the excursion by 6 o'clock tonight.</t>
+          <t xml:space="preserve">Câu 4 (NB) She _____ from the excursion by 6 o'clock tonight.
+</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -3449,29 +3915,34 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t xml:space="preserve">A. will have returned </t>
+          <t xml:space="preserve">A. will have returned 
+</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>B. is going to return</t>
+          <t xml:space="preserve">B. is going to return
+</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t xml:space="preserve">C. is returning   </t>
+          <t xml:space="preserve">C. is returning  
+</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>D. will be returning</t>
+          <t xml:space="preserve">D. will be returning
+</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Câu 5 (NB) She _______ from the excursion by 6 o'clock tonight.</t>
+          <t xml:space="preserve">Câu 5 (NB) She _______ from the excursion by 6 o'clock tonight.
+</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -3481,29 +3952,34 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t xml:space="preserve">A. will have returned </t>
+          <t xml:space="preserve">A. will have returned
+</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>B. is going to return</t>
+          <t xml:space="preserve">B. is going to return
+</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t xml:space="preserve">C. is returning   </t>
+          <t xml:space="preserve">C. is returning  
+</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>D. will be returning</t>
+          <t xml:space="preserve">D. will be returning
+</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Câu 6 (TH) You are too slow. I’m sure that by the time you phone them, they _______ that car to someone else.</t>
+          <t xml:space="preserve">Câu 6 (TH) You are too slow. I’m sure that by the time you phone them, they _______ that car to someone else.
+</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -3513,29 +3989,34 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t xml:space="preserve">A. will sell </t>
+          <t xml:space="preserve">A. will sell
+</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t xml:space="preserve">B. are selling   </t>
+          <t xml:space="preserve">B. are selling  
+</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t xml:space="preserve">C. are going to sell   </t>
+          <t xml:space="preserve">C. are going to sell  
+</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>D. will have sold</t>
+          <t xml:space="preserve">D. will have sold
+</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Câu 7 (TH) By 2050, this area ______ turned into an industrial centre.</t>
+          <t xml:space="preserve">Câu 7 (TH) By 2050, this area ______ turned into an industrial centre.
+</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -3545,29 +4026,34 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t xml:space="preserve">A. will be  </t>
+          <t xml:space="preserve">A. will be 
+</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>B. will</t>
+          <t xml:space="preserve">B. will
+</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>C. will have been</t>
+          <t xml:space="preserve">C. will have been 
+</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>D. has</t>
+          <t xml:space="preserve">                      D. has
+</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Câu 8 (TH) The car ______ ready for him by the time he comes tomorrow.</t>
+          <t xml:space="preserve">Câu 8 (TH) The car ______ ready for him by the time he comes tomorrow.
+</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -3577,29 +4063,34 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>A. will be</t>
+          <t xml:space="preserve">A. will be
+</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t xml:space="preserve">B. will have been </t>
+          <t xml:space="preserve">B. will have been   
+</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t xml:space="preserve">C. will being  </t>
+          <t xml:space="preserve">C. will being 
+</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>D. are going to be</t>
+          <t xml:space="preserve">D. are going to be
+</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Câu 9 (TH) These machines _______ very well by the time you ________back next week.</t>
+          <t xml:space="preserve">Câu 9 (TH) These machines _______ very well by the time you ________back next week.
+</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -3609,29 +4100,34 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>A. will work – come</t>
+          <t xml:space="preserve">A. will work – come
+</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>B. work - will come</t>
+          <t xml:space="preserve">B. work - will come
+</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>C. will have work - will come</t>
+          <t xml:space="preserve">C. will have work - will come
+</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>D. will have worked - come</t>
+          <t xml:space="preserve">D. will have worked - come
+</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Câu 10 (TH) I know by the time Jack and Marry_______ my house this afternoon, I _______ out for a walk.</t>
+          <t xml:space="preserve">Câu 10 (TH) I know by the time Jack and Marry_______ my house this afternoon, I _______ out for a walk.
+</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -3641,22 +4137,26 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>A. visit - will go</t>
+          <t xml:space="preserve">A. visit - will go
+</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>B. will have visited - go</t>
+          <t xml:space="preserve">B. will have visited - go
+</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>C. visit - will have gone</t>
+          <t xml:space="preserve">C. visit - will have gone
+</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>D. visit - will be going</t>
+          <t xml:space="preserve">D. visit - will be going
+</t>
         </is>
       </c>
     </row>
